--- a/Controller/Agent_Ticket_Details.xlsx
+++ b/Controller/Agent_Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>ticketID</t>
   </si>
@@ -53,34 +53,46 @@
     <t>Open</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:48:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:48:57</t>
+    <t>high</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:55:00</t>
+  </si>
+  <si>
+    <t>2023-12-17 16:55:36</t>
+  </si>
+  <si>
+    <t>QWRTYUH</t>
+  </si>
+  <si>
+    <t>asdrtfyuio</t>
+  </si>
+  <si>
+    <t>2023-12-24 14:47:00</t>
+  </si>
+  <si>
+    <t>2023-12-24 14:47:58</t>
   </si>
   <si>
     <t>Nothing</t>
   </si>
   <si>
-    <t>Lorem Ipsum</t>
+    <t>qasdfgbhnmnvcsa</t>
   </si>
   <si>
     <t>medium</t>
   </si>
   <si>
-    <t>2023-12-19 15:52:00</t>
-  </si>
-  <si>
-    <t>2023-12-19 15:52:37</t>
-  </si>
-  <si>
-    <t>QWRTYUH</t>
-  </si>
-  <si>
-    <t>asdfghjklkjhgfdewqw34r567890</t>
+    <t>2023-12-24 14:48:00</t>
+  </si>
+  <si>
+    <t>2023-12-24 14:49:00</t>
+  </si>
+  <si>
+    <t>asdfghjk</t>
+  </si>
+  <si>
+    <t>asdfguiop[poiuytrewq</t>
   </si>
 </sst>
 </file>
@@ -420,7 +432,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +477,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -486,10 +498,10 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -497,34 +509,66 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J3">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>305</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Controller/Agent_Ticket_Details.xlsx
+++ b/Controller/Agent_Ticket_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>ticketID</t>
   </si>
@@ -50,49 +50,181 @@
     <t>remarks</t>
   </si>
   <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:48:00</t>
+  </si>
+  <si>
+    <t>2024-01-12 01:06:00</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>Done Resolving</t>
+  </si>
+  <si>
     <t>Open</t>
   </si>
   <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:52:00</t>
+  </si>
+  <si>
+    <t>2023-12-19 15:52:37</t>
+  </si>
+  <si>
+    <t>QWRTYUH</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhgfdewqw34r567890</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
-    <t>2023-12-17 16:55:00</t>
-  </si>
-  <si>
-    <t>2023-12-17 16:55:36</t>
-  </si>
-  <si>
-    <t>QWRTYUH</t>
-  </si>
-  <si>
-    <t>asdrtfyuio</t>
-  </si>
-  <si>
-    <t>2023-12-24 14:47:00</t>
-  </si>
-  <si>
-    <t>2023-12-24 14:47:58</t>
-  </si>
-  <si>
-    <t>Nothing</t>
-  </si>
-  <si>
-    <t>qasdfgbhnmnvcsa</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>2023-12-24 14:48:00</t>
-  </si>
-  <si>
-    <t>2023-12-24 14:49:00</t>
+    <t>2023-12-27 12:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:25:42</t>
+  </si>
+  <si>
+    <t>Internet Package</t>
+  </si>
+  <si>
+    <t>Cannot prevent auto renewal of internet package</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:42:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:42:17</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:42:44</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:46:46</t>
+  </si>
+  <si>
+    <t>2023-12-27 12:47:01</t>
+  </si>
+  <si>
+    <t>2023-12-27 13:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 13:25:10</t>
+  </si>
+  <si>
+    <t>Adding for testing purpose</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:16:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:16:32</t>
+  </si>
+  <si>
+    <t>Testing notifications</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:18:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 14:18:56</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhg</t>
+  </si>
+  <si>
+    <t>asdfghjkolkjhgf</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:32:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:33:08</t>
+  </si>
+  <si>
+    <t>Testing purpose</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:43:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:43:06</t>
+  </si>
+  <si>
+    <t>asdfghjkl;</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:47:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:47:57</t>
+  </si>
+  <si>
+    <t>QWRTYUHasdfghjgfd</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:58:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:58:35</t>
+  </si>
+  <si>
+    <t>3G sim</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:59:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 15:59:32</t>
+  </si>
+  <si>
+    <t>2023-12-27 16:17:00</t>
+  </si>
+  <si>
+    <t>2023-12-27 16:18:02</t>
   </si>
   <si>
     <t>asdfghjk</t>
   </si>
   <si>
-    <t>asdfguiop[poiuytrewq</t>
+    <t>asdfghjklkjhgfd</t>
+  </si>
+  <si>
+    <t>2023-12-31 13:13:00</t>
+  </si>
+  <si>
+    <t>2023-12-31 13:13:07</t>
+  </si>
+  <si>
+    <t>4G sim</t>
+  </si>
+  <si>
+    <t>srhjkl</t>
+  </si>
+  <si>
+    <t>2024-01-24 15:45:00</t>
+  </si>
+  <si>
+    <t>2024-01-24 15:45:31</t>
   </si>
 </sst>
 </file>
@@ -432,7 +564,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +609,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -498,77 +630,560 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>301</v>
+      </c>
+      <c r="J4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>305</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>301</v>
+      </c>
+      <c r="J5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>301</v>
+      </c>
+      <c r="J6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>301</v>
+      </c>
+      <c r="J7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>301</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>301</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>301</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>301</v>
+      </c>
+      <c r="J11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>301</v>
+      </c>
+      <c r="J12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>301</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>301</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>301</v>
+      </c>
+      <c r="J15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>301</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>301</v>
+      </c>
+      <c r="J17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>301</v>
+      </c>
+      <c r="J18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>301</v>
+      </c>
+      <c r="J19">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
